--- a/Alfawork/工作计划/20170424~20170428.xlsx
+++ b/Alfawork/工作计划/20170424~20170428.xlsx
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,15 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,53 +109,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,65 +207,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,7 +264,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,60 +438,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,96 +445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,45 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -542,26 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,8 +519,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,137 +603,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,21 +764,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,10 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1149,8 +1131,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="49" customHeight="1" outlineLevelRow="6"/>
@@ -1181,22 +1163,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A2" s="7">
@@ -1221,22 +1203,22 @@
         <v>9</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
     </row>
     <row r="3" s="3" customFormat="1" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -1261,22 +1243,22 @@
         <v>9</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="9">
@@ -1300,8 +1282,8 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="9">
@@ -1325,8 +1307,8 @@
       <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="9">
@@ -1350,32 +1332,30 @@
       <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>42849</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>42853</v>
       </c>
-      <c r="E7" s="13">
-        <v>42853</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
